--- a/doc/テトリス制作手順メモ.xlsx
+++ b/doc/テトリス制作手順メモ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lifes\OneDrive\デスクトップ\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Github-kobuchi\TETRIS_odyssey\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D58407B-EB3E-4FD3-8C77-571AB22370C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DF5465-EF7A-472F-8F2C-D403BCFABA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="2220" windowWidth="22200" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復テトリス手順メモ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="168">
   <si>
     <t>Unityテトリス制作メモ</t>
     <rPh sb="9" eb="11">
@@ -989,6 +989,364 @@
   </si>
   <si>
     <t>新しいミノのスポーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次にやること</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボードの位置を記憶する。</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キオク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それより前に数値を丸める</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Roundingというスクリプトを作成</t>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public Staticにする。Monobehaverは削除</t>
+    <rPh sb="29" eb="31">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Boardに戻る</t>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheckPositionを修正</t>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2次元配列の作成</t>
+    <rPh sb="1" eb="3">
+      <t>ジゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheckPositionに追記</t>
+    <rPh sb="14" eb="16">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動先にブロックがないか判定する</t>
+    <rPh sb="0" eb="3">
+      <t>イドウサキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックが落ちたポジションを記録する関数</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gridという二次元配列を作る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボードゲームを作るときは便利です</t>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ベンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameManagerに戻る</t>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落下する物体の左右丸め</t>
+    <rPh sb="0" eb="2">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブッタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool BlockCheck</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vector2の x,yの値を丸める処理</t>
+    <rPh sb="13" eb="14">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vector3のx,yの値を丸める処理</t>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それを、ブロックが枠内にあるか判定する関数の中で一緒にチェックする</t>
+    <rPh sb="9" eb="11">
+      <t>ワクナイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イッショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックが落ちたポジションを記録する関数を、</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameManagerのブロックが底についたかどうかをチェックするところで呼び出す</t>
+    <rPh sb="37" eb="38">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BoardのAwakeで、gridのインスタンス生成を行う</t>
+    <rPh sb="24" eb="26">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックを操作できるようにする</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameManagerクラスです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力受付タイマー</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力インターバル</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイマーの初期設定</t>
+    <rPh sb="5" eb="7">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数の作成</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー入力を検知してブロックを動かす関数</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボードのそこについたときに次のブロックを生成する関数</t>
+    <rPh sb="13" eb="14">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右、</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右回転</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>底についた時の関数をよぶ</t>
+    <rPh sb="0" eb="1">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これでプレイヤーインプットができたので</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameManagerのUpdateから呼び出す</t>
+    <rPh sb="20" eb="21">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスペクタで、nextDropTimerの数値を入力</t>
+    <rPh sb="22" eb="24">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これでミノ操作ができる</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1073,12 +1431,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1410,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2678,21 +3037,27 @@
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" s="1"/>
+      <c r="B143" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" s="1"/>
+      <c r="B144" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" s="1"/>
+      <c r="B145" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3">
@@ -2706,14 +3071,18 @@
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="1"/>
+      <c r="B147" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" s="1"/>
+      <c r="B148" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3">
@@ -2727,7 +3096,9 @@
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="1"/>
+      <c r="B150" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3">
@@ -2741,7 +3112,9 @@
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" s="1"/>
+      <c r="B152" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3">
@@ -2762,14 +3135,18 @@
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" s="1"/>
+      <c r="B155" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="C155" s="1"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" s="1"/>
+      <c r="B156" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C156" s="1"/>
     </row>
     <row r="157" spans="1:3">
@@ -2783,14 +3160,18 @@
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" s="1"/>
+      <c r="B158" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="C158" s="1"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="1"/>
+      <c r="B159" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="C159" s="1"/>
     </row>
     <row r="160" spans="1:3">
@@ -2825,15 +3206,21 @@
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
+      <c r="B164" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="C165" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
@@ -2846,15 +3233,21 @@
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" s="1"/>
+      <c r="B167" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="C167" s="1"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
+      <c r="B168" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
@@ -2867,7 +3260,9 @@
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" s="1"/>
+      <c r="B170" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C170" s="1"/>
     </row>
     <row r="171" spans="1:3">
@@ -2888,14 +3283,15 @@
       <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" s="1"/>
       <c r="C173" s="1"/>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" s="1"/>
+      <c r="B174" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="C174" s="1"/>
     </row>
     <row r="175" spans="1:3">
@@ -2909,14 +3305,18 @@
       <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" s="1"/>
+      <c r="B176" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C176" s="1"/>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" s="1"/>
+      <c r="B177" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="C177" s="1"/>
     </row>
     <row r="178" spans="1:3">
@@ -2930,7 +3330,9 @@
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" s="1"/>
+      <c r="B179" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="C179" s="1"/>
     </row>
     <row r="180" spans="1:3">
@@ -2944,14 +3346,18 @@
       <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" s="1"/>
+      <c r="B181" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C181" s="1"/>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" s="1"/>
+      <c r="B182" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C182" s="1"/>
     </row>
     <row r="183" spans="1:3">
@@ -2965,21 +3371,27 @@
       <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" s="1"/>
+      <c r="B184" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C184" s="1"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" s="1"/>
+      <c r="B185" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C185" s="1"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" s="1"/>
+      <c r="B186" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C186" s="1"/>
     </row>
     <row r="187" spans="1:3">
@@ -2993,7 +3405,9 @@
       <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" s="1"/>
+      <c r="B188" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C188" s="1"/>
     </row>
     <row r="189" spans="1:3">
@@ -3007,28 +3421,36 @@
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" s="1"/>
+      <c r="B190" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C190" s="1"/>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" s="1"/>
+      <c r="B191" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C191" s="1"/>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" s="1"/>
+      <c r="B192" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="C192" s="1"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" s="1"/>
+      <c r="B193" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="C193" s="1"/>
     </row>
     <row r="194" spans="1:3">
@@ -3049,14 +3471,18 @@
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" s="1"/>
+      <c r="B196" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C196" s="1"/>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" s="1"/>
+      <c r="B197" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="C197" s="1"/>
     </row>
     <row r="198" spans="1:3">
@@ -3070,14 +3496,18 @@
       <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" s="1"/>
+      <c r="B199" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C199" s="1"/>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" s="1"/>
+      <c r="B200" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C200" s="1"/>
     </row>
     <row r="201" spans="1:3">
@@ -3091,7 +3521,9 @@
       <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" s="1"/>
+      <c r="B202" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C202" s="1"/>
     </row>
     <row r="203" spans="1:3">
@@ -3105,7 +3537,9 @@
       <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" s="1"/>
+      <c r="B204" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="C204" s="1"/>
     </row>
     <row r="205" spans="1:3">

--- a/doc/テトリス制作手順メモ.xlsx
+++ b/doc/テトリス制作手順メモ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Github-kobuchi\TETRIS_odyssey\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityStudy\TETRIS_odyssey-\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DF5465-EF7A-472F-8F2C-D403BCFABA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F3AB35-653C-45A1-935C-3641BB9E9F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="2220" windowWidth="22200" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復テトリス手順メモ" sheetId="1" r:id="rId1"/>
@@ -1431,13 +1431,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1769,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3439,7 +3438,7 @@
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C192" s="1"/>

--- a/doc/テトリス制作手順メモ.xlsx
+++ b/doc/テトリス制作手順メモ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityStudy\TETRIS_odyssey-\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Github-kobuchi\TETRIS_odyssey\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F3AB35-653C-45A1-935C-3641BB9E9F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0615180-F71D-488D-9445-4A4906FA677A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="1170" windowWidth="22200" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復テトリス手順メモ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="169">
   <si>
     <t>Unityテトリス制作メモ</t>
     <rPh sb="9" eb="11">
@@ -1346,6 +1346,22 @@
     <t>これでミノ操作ができる</t>
     <rPh sb="5" eb="7">
       <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>続いて揃ったら消す作業</t>
+    <rPh sb="0" eb="1">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1769,7 +1785,7 @@
   <dimension ref="A1:C284"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="C205" sqref="C205"/>
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3552,7 +3568,9 @@
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" s="1"/>
+      <c r="B206" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="C206" s="1"/>
     </row>
     <row r="207" spans="1:3">

--- a/doc/テトリス制作手順メモ.xlsx
+++ b/doc/テトリス制作手順メモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Github-kobuchi\TETRIS_odyssey\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0615180-F71D-488D-9445-4A4906FA677A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA2EC4D-8E1D-4FFE-8E72-827B78EE5680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="1170" windowWidth="22200" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="1950" windowWidth="22200" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復テトリス手順メモ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="215">
   <si>
     <t>Unityテトリス制作メモ</t>
     <rPh sb="9" eb="11">
@@ -1363,6 +1363,391 @@
     <rPh sb="9" eb="11">
       <t>サギョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数の作成</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての行をチェックして、埋まっていれば削除する関数</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての行をチェックする関数</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除する関数</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上にあるブロックを一段下げる関数</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチダン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバーを判定する</t>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameOverPanelをヒエラルキに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色を黒に</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>透明度を230くらいに</t>
+    <rPh sb="0" eb="3">
+      <t>トウメイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親であるCanvasの設定</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　UIスケールモードを変更</t>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面サイズに拡大</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　解像度の変更</t>
+    <rPh sb="1" eb="4">
+      <t>カイゾウド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もとの解像度と同じサイズに</t>
+    <rPh sb="3" eb="6">
+      <t>カイゾウド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1080*1920</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.5にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameOverPanelの子に</t>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameOverTextを追加</t>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>textに「Game Over」を追加</t>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枠を大きく</t>
+    <rPh sb="0" eb="1">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字サイズも大きく</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央揃え</t>
+    <rPh sb="0" eb="2">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンカーのところを開いて</t>
+    <rPh sb="9" eb="10">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Altキーを押しながら右上を選ぶ</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位置を少し下にする</t>
+    <rPh sb="0" eb="2">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同様にGameOverPanelの子に</t>
+    <rPh sb="0" eb="2">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Retryボタンを追加</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっと上の場所に。</t>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameManagerのスクリプト編集へ</t>
+    <rPh sb="17" eb="19">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次にやりたいのは</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これでUIはできました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリの追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン遷移のライブラリ</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数の作成</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パネル格納</t>
+    <rPh sb="3" eb="5">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバーパネルの表示非表示</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバーになったらパネル表示</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン再読み込みをする。(ボタン押下で</t>
+    <rPh sb="3" eb="5">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>using UnityEngine.SceneManagement;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameOverになったらプレイヤ受付しない</t>
+    <rPh sb="17" eb="19">
+      <t>ウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boardのスクリプトで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OverLimitを判定する</t>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameManagerでそれらを呼ぶ</t>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameManagerのupdateにif文ついか</t>
+    <rPh sb="21" eb="22">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あとは、GameManagerにパネルをアタッチする</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1447,12 +1832,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1784,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3577,35 +3963,45 @@
       <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" s="1"/>
+      <c r="B207" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="C207" s="1"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" s="1"/>
+      <c r="B208" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="C208" s="1"/>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" s="1"/>
+      <c r="B209" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="C209" s="1"/>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" s="1"/>
+      <c r="B210" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="C210" s="1"/>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" s="1"/>
+      <c r="B211" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="C211" s="1"/>
     </row>
     <row r="212" spans="1:3">
@@ -3619,64 +4015,88 @@
       <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" s="1"/>
+      <c r="B213" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="C213" s="1"/>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" s="1"/>
+      <c r="B214" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="C214" s="1"/>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" s="1"/>
+      <c r="B215" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="C215" s="1"/>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" s="1"/>
+      <c r="B216" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="C216" s="1"/>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" s="1"/>
+      <c r="B217" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="C217" s="1"/>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
+      <c r="B218" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
+      <c r="B219" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
+      <c r="C220" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
+      <c r="B221" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1">
@@ -3689,56 +4109,74 @@
       <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" s="1"/>
+      <c r="B223" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C223" s="1"/>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" s="1"/>
+      <c r="B224" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C224" s="1"/>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" s="1"/>
+      <c r="B225" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C225" s="1"/>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" s="1"/>
+      <c r="B226" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="C226" s="1"/>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" s="1"/>
+      <c r="B227" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="C227" s="1"/>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" s="1"/>
+      <c r="B228" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="C228" s="1"/>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
+      <c r="B229" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" s="1"/>
+      <c r="B230" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="C230" s="1"/>
     </row>
     <row r="231" spans="1:3">
@@ -3752,22 +4190,30 @@
       <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" s="1"/>
+      <c r="B232" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C232" s="1"/>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" s="1"/>
+      <c r="B233" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="C233" s="1"/>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
+      <c r="B234" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1">
@@ -3780,14 +4226,18 @@
       <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" s="1"/>
+      <c r="B236" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C236" s="1"/>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" s="1"/>
+      <c r="B237" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="C237" s="1"/>
     </row>
     <row r="238" spans="1:3">
@@ -3801,15 +4251,21 @@
       <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" s="1"/>
+      <c r="B239" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="C239" s="1"/>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
+      <c r="B240" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1">
@@ -3822,21 +4278,27 @@
       <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" s="1"/>
+      <c r="B242" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C242" s="1"/>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" s="1"/>
+      <c r="B243" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="C243" s="1"/>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" s="1"/>
+      <c r="B244" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="C244" s="1"/>
     </row>
     <row r="245" spans="1:3">
@@ -3850,7 +4312,9 @@
       <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" s="1"/>
+      <c r="B246" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="C246" s="1"/>
     </row>
     <row r="247" spans="1:3">
@@ -3864,21 +4328,27 @@
       <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" s="1"/>
+      <c r="B248" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="C248" s="1"/>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" s="1"/>
+      <c r="B249" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="C249" s="1"/>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" s="1"/>
+      <c r="B250" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="C250" s="1"/>
     </row>
     <row r="251" spans="1:3">
@@ -3892,14 +4362,18 @@
       <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" s="1"/>
+      <c r="B252" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C252" s="1"/>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" s="1"/>
+      <c r="B253" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C253" s="1"/>
     </row>
     <row r="254" spans="1:3">
@@ -3913,21 +4387,27 @@
       <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" s="1"/>
+      <c r="B255" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="C255" s="1"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" s="1"/>
+      <c r="B256" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C256" s="1"/>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" s="1"/>
+      <c r="B257" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="C257" s="1"/>
     </row>
     <row r="258" spans="1:3">
@@ -3941,7 +4421,9 @@
       <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" s="1"/>
+      <c r="B259" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="C259" s="1"/>
     </row>
     <row r="260" spans="1:3">

--- a/doc/テトリス制作手順メモ.xlsx
+++ b/doc/テトリス制作手順メモ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\Github-kobuchi\TETRIS_odyssey\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityStudy\TETRIS_odyssey-\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA2EC4D-8E1D-4FFE-8E72-827B78EE5680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC657E8A-0D55-4A5C-9BFE-D7A88D340C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="1950" windowWidth="22200" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復テトリス手順メモ" sheetId="1" r:id="rId1"/>
@@ -1832,13 +1832,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2170,9 +2169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -4051,7 +4048,7 @@
       <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" s="4" t="s">
         <v>178</v>
       </c>
       <c r="C217" s="1"/>
